--- a/JOBS.xlsx
+++ b/JOBS.xlsx
@@ -9,23 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9135" windowHeight="7680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9135" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JOBLIST" sheetId="1" r:id="rId1"/>
     <sheet name="JOB001" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="JOB002" sheetId="4" r:id="rId3"/>
+    <sheet name="JOB003" sheetId="3" r:id="rId4"/>
+    <sheet name="JOB004" sheetId="5" r:id="rId5"/>
+    <sheet name="JOB005" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
-  <si>
-    <t>FILE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>JOB001</t>
   </si>
@@ -147,20 +146,107 @@
     <t>JOB020</t>
   </si>
   <si>
-    <t>JOBNAME</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>SNP</t>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>JOB021</t>
+  </si>
+  <si>
+    <t>Test Job 021</t>
+  </si>
+  <si>
+    <t>JOB022</t>
+  </si>
+  <si>
+    <t>Test Job 022</t>
+  </si>
+  <si>
+    <t>JOB023</t>
+  </si>
+  <si>
+    <t>Test Job 023</t>
+  </si>
+  <si>
+    <t>JOB024</t>
+  </si>
+  <si>
+    <t>Test Job 024</t>
+  </si>
+  <si>
+    <t>JOB025</t>
+  </si>
+  <si>
+    <t>Test Job 025</t>
+  </si>
+  <si>
+    <t>JOB026</t>
+  </si>
+  <si>
+    <t>Test Job 026</t>
+  </si>
+  <si>
+    <t>JOB027</t>
+  </si>
+  <si>
+    <t>Test Job 027</t>
+  </si>
+  <si>
+    <t>JOB028</t>
+  </si>
+  <si>
+    <t>Test Job 028</t>
+  </si>
+  <si>
+    <t>JOB029</t>
+  </si>
+  <si>
+    <t>Test Job 029</t>
+  </si>
+  <si>
+    <t>JOB030</t>
+  </si>
+  <si>
+    <t>Test Job 030</t>
+  </si>
+  <si>
+    <t>JOB031</t>
+  </si>
+  <si>
+    <t>Test Job 031</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>FEED_FORMAT</t>
+  </si>
+  <si>
+    <t>FEED_FILE</t>
+  </si>
+  <si>
+    <t>FEED_DATE</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>JOB_NAME</t>
+  </si>
+  <si>
+    <t>LAB_FEED_MAP.xlsx</t>
+  </si>
+  <si>
+    <t>LAB20140701EOD.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -171,7 +257,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -214,16 +325,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -499,355 +645,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A6" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"STOP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"GO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
+      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="9">
+        <v>41821</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -857,97 +1075,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>200</v>
+      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="9">
+        <v>41821</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -956,12 +1134,177 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="9">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="9">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="9">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>